--- a/results/I3_N5_M3_T30_C100_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451.9241880117757</v>
+        <v>483.2465224855237</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.41418801177994</v>
+        <v>29.24652248552367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.945449791884933</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8.945449791884933</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250.4699999999957</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.04</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,105 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.22809649842574</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.11016360191877</v>
+        <v>22.35722294236247</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.612049279841017</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29761324068037</v>
+        <v>27.2470593404437</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.62482380361045</v>
+        <v>29.20720933595949</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.88983639808123</v>
+        <v>23.61204927984102</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1071,132 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.6949999999999</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>104.8849999999998</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>111.735</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>114.685</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>113.7699999999996</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>117.2899999999996</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>108.3349999999996</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9949999999996</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>111.3449999999996</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000025</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000016</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000036</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000014</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.6949999999999</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>104.8849999999998</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>111.735</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>119.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>114.685</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>67.32000000000029</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>76.2050000000003</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1900000000003</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>70.59000000000029</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>74.58500000000029</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>113.7699999999996</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>117.2899999999996</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>108.3349999999996</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>111.9949999999996</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>111.3449999999996</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.69499999999989</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.8849999999998</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.735</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.685</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13.76999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>17.28999999999962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8.334999999999638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.99499999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>11.34499999999964</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
